--- a/docs/Horizon/pin irs table.xlsx
+++ b/docs/Horizon/pin irs table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eden\OneDrive - Horizon Electronics Ltd\Desktop\CONDOR REQUIREMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCFEB58-BBA1-4C31-BEB1-794A45E562D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765E1FE8-40C0-4D7C-9A25-3974BAA3E450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16F3D17C-610C-4FB4-B853-C4C7DCD3E693}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16F3D17C-610C-4FB4-B853-C4C7DCD3E693}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
   <si>
     <t>Measurement</t>
   </si>
@@ -170,9 +170,6 @@
     <t>V_OUT_2</t>
   </si>
   <si>
-    <t>50WDCDC RS485</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">50WDCDC secondary micro measures </t>
     </r>
@@ -904,15 +901,9 @@
     <t>Iout_LLC_sns</t>
   </si>
   <si>
-    <t>Average of Vsns_PH1* PH1_I_sns+ Vsns_PH2* PH2_I_sns + Vsns_PH3*PH3_I_sns</t>
-  </si>
-  <si>
     <t>temp_sns_LLC_SR_filt</t>
   </si>
   <si>
-    <t>Iout_OCP</t>
-  </si>
-  <si>
     <t>main_board_temp_sns</t>
   </si>
   <si>
@@ -949,30 +940,18 @@
     <t>1LSB 4mV</t>
   </si>
   <si>
-    <t>check VDC_IN</t>
-  </si>
-  <si>
-    <t>check VAC_IN_PH_A,B,C</t>
-  </si>
-  <si>
     <t>1LSB 0.00805V</t>
   </si>
   <si>
     <t>1LSB 0.0032V</t>
   </si>
   <si>
-    <t>להוסיף מסמך נפרד של חישובים (מאיר ישלח)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Calculation example: FPGA measures Vph_A(t), FPGA calculates Vph_A_rms, Main board reports Ipfc_A_rms, FPGA assumes ipfc_A=(Vph_A(*Ipfc_A_rms)/(Vph_A_rms)                                          iph_A-ipfc_A-iout4=iout3_phA                                                         calculate rms (iout_ph_A)                                                                           for phase B, C, don't include iout4.                       </t>
   </si>
   <si>
     <t>check if PG_PSU_1, PG_PSU_2, PG_PSU_5, PG_PSU_6, PG_PSU_7, PG_PSU_8, PG_PSU_9, PG_PSU_10 and PG_BUCK are all equal 1</t>
   </si>
   <si>
-    <t>ocp/ovp/otp/input voltage protection   pc number:00 main board, 01 DCDC1, 02 DCDC50W, 05 DCDC5, 06 DCDC6, 07 DCDC7,08 LLC, 09 DCDC9 AND 4 BIT STATUS</t>
-  </si>
-  <si>
     <t>I_OUT_3_ph1(rms)=PH1_I_sns-OUT4_Isns-I_PFC_PH_A</t>
   </si>
   <si>
@@ -980,13 +959,72 @@
   </si>
   <si>
     <t>I_OUT_3_ph3(rms)=PH3_I_sns-I_PFC_PH_C</t>
+  </si>
+  <si>
+    <t>refer to FAN control in FPGA specifications file</t>
+  </si>
+  <si>
+    <t>50WDCDC RS485 (DCDC2)</t>
+  </si>
+  <si>
+    <t>Average of Vsns_PH1(line3)* PH1_I_sns(line 7)+ Vsns_PH2(line4)* PH2_I_sns(line 8) + Vsns_PH3(line 5)*PH3_I_sns(line 9)</t>
+  </si>
+  <si>
+    <t>check if VDC_IN (line 2) is in range 18-32VDC</t>
+  </si>
+  <si>
+    <t>check VAC_IN_PH_A,B,C (lines 3,4,5) are in range 95-125VAC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4 BIT STATUS: (refer protocol_RS485_DC-DC_Control_SEC.docx) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                        VinP  Input voltage protection - Byte 8, bit 4                      OTP -  Byte 8, bit 5                                                                    OCP - Byte 8, bit 6                                                                     OVP - Byte 8, bit 7                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pc number: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                  00 main board                                                                            01 DCDC1                                                                                     02 DCDC50W                                                                                05 DCDC5                                                                                     06 DCDC6                                                                                     07 DCDC7                                                                                     08 LLC                                                                                           09 DCDC9</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,8 +1057,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,12 +1076,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1216,6 +1256,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1225,91 +1295,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2823,9 +2859,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2863,7 +2899,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2969,7 +3005,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3111,7 +3147,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3121,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC39646-33B4-4CAB-B2F6-1404DFD1D1F3}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,7 +3167,7 @@
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.28515625" customWidth="1"/>
     <col min="4" max="4" width="68" customWidth="1"/>
-    <col min="5" max="5" width="143.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" customWidth="1"/>
     <col min="6" max="6" width="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" customWidth="1"/>
     <col min="9" max="9" width="86.5703125" customWidth="1"/>
@@ -3149,7 +3185,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="13"/>
-      <c r="E1" s="32"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -3162,10 +3198,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3179,10 +3215,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3196,10 +3232,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3213,10 +3249,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3230,10 +3266,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3247,10 +3283,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3264,10 +3300,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3281,10 +3317,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3292,660 +3328,656 @@
         <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>154</v>
+        <v>119</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>35</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>154</v>
+        <v>119</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="35"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D17" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D18" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>165</v>
+      <c r="D19" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="56" t="s">
-        <v>166</v>
+      <c r="D20" s="34"/>
+      <c r="E20" s="26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="57" t="s">
-        <v>167</v>
+      <c r="D21" s="35"/>
+      <c r="E21" s="27" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>159</v>
+      <c r="D23" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="35"/>
+        <v>32</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D25" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>142</v>
+      <c r="D26" s="25" t="s">
+        <v>163</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="39" t="s">
+      <c r="D27" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="43" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="40"/>
+      <c r="D28" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="41"/>
+      <c r="D29" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="45"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>139</v>
+      <c r="D30" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="28"/>
+        <v>32</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="27"/>
+      <c r="D32" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="53"/>
     </row>
     <row r="33" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="D33" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="D34" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="D35" s="20" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D36" s="20" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="54" t="s">
-        <v>163</v>
+      <c r="D37" s="25" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>164</v>
+      <c r="D38" s="54"/>
+      <c r="E38" s="46" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="43"/>
-    </row>
-    <row r="40" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="47"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="43"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="47"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="47"/>
+    </row>
+    <row r="42" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="43"/>
-    </row>
-    <row r="42" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="43"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="47"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="43"/>
+        <v>85</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="47"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="43"/>
+        <v>32</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="47"/>
     </row>
     <row r="45" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="43"/>
+        <v>82</v>
+      </c>
+      <c r="C45" s="39"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="47"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="43"/>
+        <v>36</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="47"/>
     </row>
     <row r="47" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="43"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="40"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="47"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="44"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="48"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51" t="s">
-        <v>140</v>
+        <v>91</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
+        <v>92</v>
+      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
     </row>
     <row r="51" spans="1:10" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="53"/>
+      <c r="D51" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="30"/>
       <c r="J51" s="16"/>
     </row>
     <row r="52" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="53"/>
+      <c r="D52" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="30"/>
     </row>
     <row r="53" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="53"/>
+      <c r="D53" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="30"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
